--- a/SchedulingData/dynamic10/pso/scheduling1_12.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_12.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.7</v>
+        <v>88.7</v>
       </c>
       <c r="E2" t="n">
-        <v>25.38</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.59999999999999</v>
+        <v>49.5</v>
       </c>
       <c r="E3" t="n">
-        <v>26.1</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="4">
@@ -504,74 +504,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>127.9</v>
+        <v>87.7</v>
       </c>
       <c r="E4" t="n">
-        <v>22.98</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.36</v>
+        <v>58.8</v>
       </c>
       <c r="E5" t="n">
-        <v>27.244</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="D6" t="n">
-        <v>80.84</v>
+        <v>160.1</v>
       </c>
       <c r="E6" t="n">
-        <v>25.576</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55.8</v>
+        <v>59.66</v>
       </c>
       <c r="E7" t="n">
-        <v>27.58</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55.8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>113.5</v>
+        <v>60.88</v>
       </c>
       <c r="E8" t="n">
-        <v>23.44</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>60.88</v>
       </c>
       <c r="D9" t="n">
-        <v>70.40000000000001</v>
+        <v>107.44</v>
       </c>
       <c r="E9" t="n">
-        <v>25.14</v>
+        <v>23.596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>70.40000000000001</v>
+        <v>59.66</v>
       </c>
       <c r="D10" t="n">
-        <v>133.4</v>
+        <v>119.56</v>
       </c>
       <c r="E10" t="n">
-        <v>20.46</v>
+        <v>21.344</v>
       </c>
     </row>
     <row r="11">
@@ -637,93 +637,93 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.7</v>
+        <v>119.56</v>
       </c>
       <c r="D11" t="n">
-        <v>131.3</v>
+        <v>189.76</v>
       </c>
       <c r="E11" t="n">
-        <v>22.14</v>
+        <v>17.424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>80.84</v>
+        <v>160.1</v>
       </c>
       <c r="D12" t="n">
-        <v>129.54</v>
+        <v>233.04</v>
       </c>
       <c r="E12" t="n">
-        <v>22.816</v>
+        <v>17.536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>133.4</v>
+        <v>88.7</v>
       </c>
       <c r="D13" t="n">
-        <v>183.06</v>
+        <v>144.8</v>
       </c>
       <c r="E13" t="n">
-        <v>17.604</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>113.5</v>
+        <v>189.76</v>
       </c>
       <c r="D14" t="n">
-        <v>179.66</v>
+        <v>235.98</v>
       </c>
       <c r="E14" t="n">
-        <v>20.424</v>
+        <v>14.432</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.36</v>
+        <v>58.8</v>
       </c>
       <c r="D15" t="n">
-        <v>102.8</v>
+        <v>129.7</v>
       </c>
       <c r="E15" t="n">
-        <v>24.02</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>129.54</v>
+        <v>49.5</v>
       </c>
       <c r="D16" t="n">
-        <v>214.64</v>
+        <v>114.84</v>
       </c>
       <c r="E16" t="n">
-        <v>18.896</v>
+        <v>22.816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>127.9</v>
+        <v>129.7</v>
       </c>
       <c r="D17" t="n">
-        <v>184</v>
+        <v>173.64</v>
       </c>
       <c r="E17" t="n">
-        <v>18.5</v>
+        <v>19.536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>184</v>
+        <v>107.44</v>
       </c>
       <c r="D18" t="n">
-        <v>245.06</v>
+        <v>174.94</v>
       </c>
       <c r="E18" t="n">
-        <v>16.004</v>
+        <v>19.456</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>214.64</v>
+        <v>144.8</v>
       </c>
       <c r="D19" t="n">
-        <v>266.94</v>
+        <v>206.42</v>
       </c>
       <c r="E19" t="n">
-        <v>16.296</v>
+        <v>18.248</v>
       </c>
     </row>
     <row r="20">
@@ -808,226 +808,226 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>102.8</v>
+        <v>206.42</v>
       </c>
       <c r="D20" t="n">
-        <v>159.06</v>
+        <v>258.82</v>
       </c>
       <c r="E20" t="n">
-        <v>21.004</v>
+        <v>15.128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>245.06</v>
+        <v>174.94</v>
       </c>
       <c r="D21" t="n">
-        <v>313.2</v>
+        <v>224.2</v>
       </c>
       <c r="E21" t="n">
-        <v>13.3</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>183.06</v>
+        <v>224.2</v>
       </c>
       <c r="D22" t="n">
-        <v>233.48</v>
+        <v>264.6</v>
       </c>
       <c r="E22" t="n">
-        <v>14.692</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>131.3</v>
+        <v>233.04</v>
       </c>
       <c r="D23" t="n">
-        <v>187.42</v>
+        <v>295.88</v>
       </c>
       <c r="E23" t="n">
-        <v>19.148</v>
+        <v>14.832</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>187.42</v>
+        <v>264.6</v>
       </c>
       <c r="D24" t="n">
-        <v>231.36</v>
+        <v>330.86</v>
       </c>
       <c r="E24" t="n">
-        <v>15.884</v>
+        <v>11.724</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>179.66</v>
+        <v>235.98</v>
       </c>
       <c r="D25" t="n">
-        <v>247.26</v>
+        <v>282.34</v>
       </c>
       <c r="E25" t="n">
-        <v>15.804</v>
+        <v>11.416</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>159.06</v>
+        <v>114.84</v>
       </c>
       <c r="D26" t="n">
-        <v>228.42</v>
+        <v>152.14</v>
       </c>
       <c r="E26" t="n">
-        <v>17.208</v>
+        <v>20.216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>231.36</v>
+        <v>152.14</v>
       </c>
       <c r="D27" t="n">
-        <v>282.98</v>
+        <v>208.5</v>
       </c>
       <c r="E27" t="n">
-        <v>11.852</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>247.26</v>
+        <v>208.5</v>
       </c>
       <c r="D28" t="n">
-        <v>286.72</v>
+        <v>262.36</v>
       </c>
       <c r="E28" t="n">
-        <v>12.988</v>
+        <v>14.444</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>282.98</v>
+        <v>258.82</v>
       </c>
       <c r="D29" t="n">
-        <v>347.76</v>
+        <v>313.38</v>
       </c>
       <c r="E29" t="n">
-        <v>8.464</v>
+        <v>12.272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>286.72</v>
+        <v>262.36</v>
       </c>
       <c r="D30" t="n">
-        <v>348.22</v>
+        <v>307.88</v>
       </c>
       <c r="E30" t="n">
-        <v>10.468</v>
+        <v>11.532</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>228.42</v>
+        <v>173.64</v>
       </c>
       <c r="D31" t="n">
-        <v>284.68</v>
+        <v>248.84</v>
       </c>
       <c r="E31" t="n">
-        <v>14.192</v>
+        <v>15.636</v>
       </c>
     </row>
   </sheetData>
